--- a/Test/Lawnmower/T2/Sensors_data_1000046.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000046.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8767848833520617</v>
+        <v>0.9742258526840119</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00223173992573802</v>
+        <v>0.0009310446865992561</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2273541960303816</v>
+        <v>0.3017097542452343</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,143 +500,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7439244589319181</v>
+        <v>0.9832493642719566</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0166981042550666</v>
+        <v>0.001350241707814197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2362790051855056</v>
+        <v>0.03140363789571166</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.051544427918359</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05316680431091059</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.6304099395379249</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7325348238176144</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.00957503476698191</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.250940211561155</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9938775566008771</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0003158332224038973</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.05861043153054774</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2796055134020571</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03206651912801094</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.467754254553357</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>s7</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2664552799058714</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.02391288802065388</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.03085830238824872</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
